--- a/gameステージ1.xlsx
+++ b/gameステージ1.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SIC2019\SIC2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2190405\Desktop\SIC\SIC2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFBCA55-5095-4B85-AABC-E5A18C4AB2BE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88563A3-70F2-47F2-AAD2-1803E3563FC2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="12">
   <si>
     <t>ステージ</t>
     <phoneticPr fontId="1"/>
@@ -90,12 +93,24 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>uav</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,7 +140,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,6 +201,60 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF33CCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -199,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -252,6 +321,59 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -260,9 +382,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF99FF66"/>
+      <color rgb="FF33CCCC"/>
       <color rgb="FFFF33CC"/>
       <color rgb="FF990033"/>
+      <color rgb="FF99FF66"/>
       <color rgb="FF66FF33"/>
     </mruColors>
   </colors>
@@ -542,18 +665,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AI35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="AM12" sqref="AM12"/>
+    <sheetView topLeftCell="A3" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:AG35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.5546875" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="27.75" customHeight="1"/>
   <cols>
-    <col min="1" max="5" width="4.5546875" style="3"/>
-    <col min="6" max="6" width="4.77734375" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="4.5546875" style="3"/>
+    <col min="1" max="5" width="4.5" style="3"/>
+    <col min="6" max="6" width="4.75" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="4.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:35" ht="27.75" customHeight="1">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -654,7 +777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:35" ht="27.75" customHeight="1">
       <c r="A3" s="3">
         <v>40</v>
       </c>
@@ -662,7 +785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:35" ht="27.75" customHeight="1">
       <c r="A4" s="3">
         <v>80</v>
       </c>
@@ -698,7 +821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:35" ht="27.75" customHeight="1">
       <c r="A5" s="3">
         <v>120</v>
       </c>
@@ -734,7 +857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:35" ht="27.75" customHeight="1">
       <c r="A6" s="3">
         <v>160</v>
       </c>
@@ -770,7 +893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:35" ht="27.75" customHeight="1">
       <c r="A7" s="3">
         <v>200</v>
       </c>
@@ -806,7 +929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:35" ht="27.75" customHeight="1">
       <c r="A8" s="3">
         <v>240</v>
       </c>
@@ -842,7 +965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:35" ht="27.75" customHeight="1">
       <c r="A9" s="3">
         <v>280</v>
       </c>
@@ -878,7 +1001,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:35" ht="27.75" customHeight="1">
       <c r="A10" s="3">
         <v>320</v>
       </c>
@@ -914,7 +1037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:35" ht="27.75" customHeight="1">
       <c r="A11" s="3">
         <v>360</v>
       </c>
@@ -950,7 +1073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:35" ht="27.75" customHeight="1">
       <c r="A12" s="3">
         <v>400</v>
       </c>
@@ -986,7 +1109,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:35" ht="27.75" customHeight="1">
       <c r="A13" s="3">
         <v>440</v>
       </c>
@@ -1022,7 +1145,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:35" ht="27.75" customHeight="1">
       <c r="A14" s="3">
         <v>480</v>
       </c>
@@ -1058,7 +1181,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:35" ht="27.75" customHeight="1">
       <c r="A15" s="3">
         <v>520</v>
       </c>
@@ -1094,7 +1217,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:35" ht="27.75" customHeight="1">
       <c r="A16" s="3">
         <v>560</v>
       </c>
@@ -1131,7 +1254,7 @@
       </c>
       <c r="AI16" s="7"/>
     </row>
-    <row r="17" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:35" ht="27.75" customHeight="1">
       <c r="A17" s="3">
         <v>600</v>
       </c>
@@ -1168,7 +1291,7 @@
       </c>
       <c r="AI17" s="7"/>
     </row>
-    <row r="18" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:35" ht="27.75" customHeight="1">
       <c r="A18" s="3">
         <v>640</v>
       </c>
@@ -1205,7 +1328,7 @@
       </c>
       <c r="AI18" s="7"/>
     </row>
-    <row r="19" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:35" ht="27.75" customHeight="1">
       <c r="A19" s="3">
         <v>680</v>
       </c>
@@ -1244,7 +1367,7 @@
       </c>
       <c r="AI19" s="7"/>
     </row>
-    <row r="20" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:35" ht="27.75" customHeight="1">
       <c r="A20" s="3">
         <v>720</v>
       </c>
@@ -1281,7 +1404,7 @@
       </c>
       <c r="AI20" s="7"/>
     </row>
-    <row r="21" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:35" ht="27.75" customHeight="1">
       <c r="A21" s="3">
         <v>760</v>
       </c>
@@ -1318,7 +1441,7 @@
       </c>
       <c r="AI21" s="7"/>
     </row>
-    <row r="22" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:35" ht="27.75" customHeight="1">
       <c r="A22" s="3">
         <v>800</v>
       </c>
@@ -1356,7 +1479,7 @@
       </c>
       <c r="AI22" s="7"/>
     </row>
-    <row r="23" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:35" ht="27.75" customHeight="1">
       <c r="A23" s="3">
         <v>840</v>
       </c>
@@ -1394,7 +1517,7 @@
       </c>
       <c r="AI23" s="7"/>
     </row>
-    <row r="24" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:35" ht="27.75" customHeight="1">
       <c r="A24" s="3">
         <v>880</v>
       </c>
@@ -1432,7 +1555,7 @@
       </c>
       <c r="AI24" s="7"/>
     </row>
-    <row r="25" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:35" ht="27.75" customHeight="1">
       <c r="A25" s="3">
         <v>920</v>
       </c>
@@ -1471,7 +1594,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:35" ht="27.75" customHeight="1">
       <c r="A26" s="3">
         <v>1</v>
       </c>
@@ -1569,55 +1692,55 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:35" ht="27.75" customHeight="1">
       <c r="B27" s="5"/>
       <c r="C27" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:35" ht="27.75" customHeight="1">
       <c r="B28" s="12"/>
       <c r="C28" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:35" ht="27.75" customHeight="1">
       <c r="B29" s="6"/>
       <c r="C29" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:35" ht="27.75" customHeight="1">
       <c r="B30" s="13"/>
       <c r="C30" s="14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:35" ht="27.75" customHeight="1">
       <c r="B31" s="11"/>
       <c r="C31" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:35" ht="27.75" customHeight="1">
       <c r="B32" s="8"/>
       <c r="C32" s="14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:3" ht="27.75" customHeight="1">
       <c r="B33" s="10"/>
       <c r="C33" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:3" ht="27.75" customHeight="1">
       <c r="B34" s="15"/>
       <c r="C34" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:3" ht="27.75" customHeight="1">
       <c r="B35" s="16"/>
       <c r="C35" s="14" t="s">
         <v>8</v>
@@ -1632,237 +1755,5906 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC165898-5ACD-4A89-B203-1C9C9835FE7B}">
-  <dimension ref="A1:AG25"/>
+  <dimension ref="B2:AH35"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B35" sqref="B1:AH35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.21875" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="24.75" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="4.21875" style="1"/>
+    <col min="1" max="28" width="4.25" style="1"/>
+    <col min="29" max="29" width="5.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="4.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1">
+    <row r="2" spans="2:34" ht="24.75" customHeight="1">
+      <c r="B2" s="3">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="C2" s="3">
         <v>40</v>
       </c>
-      <c r="C1" s="1">
+      <c r="D2" s="3">
         <v>80</v>
       </c>
-      <c r="D1" s="1">
+      <c r="E2" s="3">
         <v>120</v>
       </c>
-      <c r="E1" s="1">
+      <c r="F2" s="3">
         <v>160</v>
       </c>
-      <c r="F1" s="1">
+      <c r="G2" s="3">
         <v>200</v>
       </c>
-      <c r="G1" s="1">
+      <c r="H2" s="3">
         <v>240</v>
       </c>
-      <c r="H1" s="1">
+      <c r="I2" s="3">
         <v>280</v>
       </c>
-      <c r="I1" s="1">
+      <c r="J2" s="3">
         <v>320</v>
       </c>
-      <c r="J1" s="1">
+      <c r="K2" s="3">
         <v>360</v>
       </c>
-      <c r="K1" s="1">
+      <c r="L2" s="3">
         <v>400</v>
       </c>
-      <c r="L1" s="1">
+      <c r="M2" s="3">
         <v>440</v>
       </c>
-      <c r="M1" s="1">
+      <c r="N2" s="3">
         <v>480</v>
       </c>
-      <c r="N1" s="1">
+      <c r="O2" s="3">
         <v>520</v>
       </c>
-      <c r="O1" s="1">
+      <c r="P2" s="3">
         <v>560</v>
       </c>
-      <c r="P1" s="1">
+      <c r="Q2" s="3">
         <v>600</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="R2" s="3">
         <v>640</v>
       </c>
-      <c r="R1" s="1">
+      <c r="S2" s="3">
         <v>680</v>
       </c>
-      <c r="S1" s="1">
+      <c r="T2" s="3">
         <v>720</v>
       </c>
-      <c r="T1" s="1">
+      <c r="U2" s="3">
         <v>760</v>
       </c>
-      <c r="U1" s="1">
+      <c r="V2" s="3">
         <v>800</v>
       </c>
-      <c r="V1" s="1">
+      <c r="W2" s="3">
         <v>840</v>
       </c>
-      <c r="W1" s="1">
+      <c r="X2" s="3">
         <v>880</v>
       </c>
-      <c r="X1" s="1">
+      <c r="Y2" s="3">
         <v>920</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Z2" s="3">
         <v>960</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="AA2" s="3">
         <v>1000</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AB2" s="3">
         <v>1040</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AC2" s="3">
         <v>1080</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AD2" s="3">
         <v>1120</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AE2" s="3">
         <v>1160</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AF2" s="3">
         <v>1200</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AG2" s="3">
         <v>1240</v>
       </c>
-      <c r="AG1" s="1">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
+      <c r="AH2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:34" ht="24.75" customHeight="1">
+      <c r="B3" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:34" ht="24.75" customHeight="1">
+      <c r="B4" s="3">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:34" ht="24.75" customHeight="1">
+      <c r="B5" s="3">
         <v>120</v>
       </c>
-    </row>
-    <row r="5" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:34" ht="24.75" customHeight="1">
+      <c r="B6" s="3">
         <v>160</v>
       </c>
-    </row>
-    <row r="6" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:34" ht="24.75" customHeight="1">
+      <c r="B7" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="7" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:34" ht="24.75" customHeight="1">
+      <c r="B8" s="3">
         <v>240</v>
       </c>
-    </row>
-    <row r="8" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="1">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:34" ht="24.75" customHeight="1">
+      <c r="B9" s="3">
         <v>280</v>
       </c>
-    </row>
-    <row r="9" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="1">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:34" ht="24.75" customHeight="1">
+      <c r="B10" s="3">
         <v>320</v>
       </c>
-    </row>
-    <row r="10" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="1">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:34" ht="24.75" customHeight="1">
+      <c r="B11" s="3">
         <v>360</v>
       </c>
-    </row>
-    <row r="11" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="1">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:34" ht="24.75" customHeight="1">
+      <c r="B12" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="12" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="1">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:34" ht="24.75" customHeight="1">
+      <c r="B13" s="3">
         <v>440</v>
       </c>
-    </row>
-    <row r="13" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="1">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:34" ht="24.75" customHeight="1">
+      <c r="B14" s="3">
         <v>480</v>
       </c>
-    </row>
-    <row r="14" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="1">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:34" ht="24.75" customHeight="1">
+      <c r="B15" s="3">
         <v>520</v>
       </c>
-    </row>
-    <row r="15" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="1">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:34" ht="24.75" customHeight="1">
+      <c r="B16" s="3">
         <v>560</v>
       </c>
-    </row>
-    <row r="16" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="1">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="7"/>
+      <c r="AH16" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:34" ht="24.75" customHeight="1">
+      <c r="B17" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="1">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:34" ht="24.75" customHeight="1">
+      <c r="B18" s="3">
         <v>640</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="1">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="7"/>
+      <c r="AH18" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:34" ht="24.75" customHeight="1">
+      <c r="B19" s="3">
         <v>680</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="1">
+      <c r="C19" s="3"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:34" ht="24.75" customHeight="1">
+      <c r="B20" s="3">
         <v>720</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="1">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="17"/>
+      <c r="AH20" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:34" ht="24.75" customHeight="1">
+      <c r="B21" s="3">
         <v>760</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="1">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="9"/>
+      <c r="AG21" s="17"/>
+      <c r="AH21" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:34" ht="24.75" customHeight="1">
+      <c r="B22" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="1">
+      <c r="C22" s="10"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="18"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="9"/>
+      <c r="AG22" s="17"/>
+      <c r="AH22" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="2:34" ht="24.75" customHeight="1">
+      <c r="B23" s="3">
         <v>840</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="1">
+      <c r="C23" s="10"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="18"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="9"/>
+      <c r="AG23" s="17"/>
+      <c r="AH23" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="2:34" ht="24.75" customHeight="1">
+      <c r="B24" s="3">
         <v>880</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="1">
+      <c r="C24" s="10"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="18"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="9"/>
+      <c r="AG24" s="17"/>
+      <c r="AH24" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:34" ht="24.75" customHeight="1">
+      <c r="B25" s="3">
         <v>920</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="1">
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="2:34" ht="24.75" customHeight="1">
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>4</v>
+      </c>
+      <c r="F26" s="3">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3">
+        <v>6</v>
+      </c>
+      <c r="H26" s="3">
+        <v>7</v>
+      </c>
+      <c r="I26" s="3">
+        <v>8</v>
+      </c>
+      <c r="J26" s="3">
+        <v>9</v>
+      </c>
+      <c r="K26" s="3">
+        <v>10</v>
+      </c>
+      <c r="L26" s="3">
+        <v>11</v>
+      </c>
+      <c r="M26" s="3">
+        <v>12</v>
+      </c>
+      <c r="N26" s="3">
+        <v>13</v>
+      </c>
+      <c r="O26" s="3">
+        <v>14</v>
+      </c>
+      <c r="P26" s="3">
+        <v>15</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>16</v>
+      </c>
+      <c r="R26" s="3">
+        <v>17</v>
+      </c>
+      <c r="S26" s="3">
+        <v>18</v>
+      </c>
+      <c r="T26" s="3">
+        <v>19</v>
+      </c>
+      <c r="U26" s="3">
+        <v>20</v>
+      </c>
+      <c r="V26" s="3">
+        <v>21</v>
+      </c>
+      <c r="W26" s="3">
+        <v>22</v>
+      </c>
+      <c r="X26" s="3">
+        <v>23</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>24</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>25</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>26</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>27</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>28</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>29</v>
+      </c>
+      <c r="AE26" s="3">
+        <v>30</v>
+      </c>
+      <c r="AF26" s="3">
+        <v>31</v>
+      </c>
+      <c r="AG26" s="3">
+        <v>32</v>
+      </c>
+      <c r="AH26" s="3"/>
+    </row>
+    <row r="27" spans="2:34" ht="24.75" customHeight="1">
+      <c r="B27" s="3"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+    </row>
+    <row r="28" spans="2:34" ht="24.75" customHeight="1">
+      <c r="B28" s="3"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+    </row>
+    <row r="29" spans="2:34" ht="24.75" customHeight="1">
+      <c r="B29" s="3"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+    </row>
+    <row r="30" spans="2:34" ht="24.75" customHeight="1">
+      <c r="B30" s="3"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3"/>
+    </row>
+    <row r="31" spans="2:34" ht="24.75" customHeight="1">
+      <c r="B31" s="3"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
+    </row>
+    <row r="32" spans="2:34" ht="24.75" customHeight="1">
+      <c r="B32" s="3"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="3"/>
+      <c r="AG32" s="3"/>
+      <c r="AH32" s="3"/>
+    </row>
+    <row r="33" spans="2:34" ht="24.75" customHeight="1">
+      <c r="B33" s="3"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
+    </row>
+    <row r="34" spans="2:34" ht="24.75" customHeight="1">
+      <c r="B34" s="3"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3"/>
+      <c r="AH34" s="3"/>
+    </row>
+    <row r="35" spans="2:34" ht="24.75" customHeight="1">
+      <c r="B35" s="3"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="3"/>
+      <c r="AG35" s="3"/>
+      <c r="AH35" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED0D13F-33F4-4171-9DDC-5E970117B68E}">
+  <dimension ref="A1:AH35"/>
+  <sheetViews>
+    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:34">
+      <c r="A1" s="1"/>
+      <c r="B1" s="3">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3">
+        <v>40</v>
+      </c>
+      <c r="D1" s="3">
+        <v>80</v>
+      </c>
+      <c r="E1" s="3">
+        <v>120</v>
+      </c>
+      <c r="F1" s="3">
+        <v>160</v>
+      </c>
+      <c r="G1" s="3">
+        <v>200</v>
+      </c>
+      <c r="H1" s="3">
+        <v>240</v>
+      </c>
+      <c r="I1" s="3">
+        <v>280</v>
+      </c>
+      <c r="J1" s="3">
+        <v>320</v>
+      </c>
+      <c r="K1" s="3">
+        <v>360</v>
+      </c>
+      <c r="L1" s="3">
+        <v>400</v>
+      </c>
+      <c r="M1" s="3">
+        <v>440</v>
+      </c>
+      <c r="N1" s="3">
+        <v>480</v>
+      </c>
+      <c r="O1" s="3">
+        <v>520</v>
+      </c>
+      <c r="P1" s="3">
+        <v>560</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>600</v>
+      </c>
+      <c r="R1" s="3">
+        <v>640</v>
+      </c>
+      <c r="S1" s="3">
+        <v>680</v>
+      </c>
+      <c r="T1" s="3">
+        <v>720</v>
+      </c>
+      <c r="U1" s="3">
+        <v>760</v>
+      </c>
+      <c r="V1" s="3">
+        <v>800</v>
+      </c>
+      <c r="W1" s="3">
+        <v>840</v>
+      </c>
+      <c r="X1" s="3">
+        <v>880</v>
+      </c>
+      <c r="Y1" s="3">
+        <v>920</v>
+      </c>
+      <c r="Z1" s="3">
         <v>960</v>
       </c>
+      <c r="AA1" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AB1" s="3">
+        <v>1040</v>
+      </c>
+      <c r="AC1" s="3">
+        <v>1080</v>
+      </c>
+      <c r="AD1" s="3">
+        <v>1120</v>
+      </c>
+      <c r="AE1" s="3">
+        <v>1160</v>
+      </c>
+      <c r="AF1" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AG1" s="3">
+        <v>1240</v>
+      </c>
+      <c r="AH1" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3">
+        <v>40</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
+      <c r="A3" s="1"/>
+      <c r="B3" s="3">
+        <v>80</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
+      <c r="A4" s="1"/>
+      <c r="B4" s="3">
+        <v>120</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3">
+        <v>160</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="A6" s="1"/>
+      <c r="B6" s="3">
+        <v>200</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="A7" s="1"/>
+      <c r="B7" s="3">
+        <v>240</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34">
+      <c r="A8" s="1"/>
+      <c r="B8" s="3">
+        <v>280</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34">
+      <c r="A9" s="1"/>
+      <c r="B9" s="3">
+        <v>320</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34">
+      <c r="A10" s="1"/>
+      <c r="B10" s="3">
+        <v>360</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="16"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34">
+      <c r="A11" s="1"/>
+      <c r="B11" s="3">
+        <v>400</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="16"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34">
+      <c r="A12" s="1"/>
+      <c r="B12" s="3">
+        <v>440</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="16"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34">
+      <c r="A13" s="1"/>
+      <c r="B13" s="3">
+        <v>480</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="16"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34">
+      <c r="A14" s="1"/>
+      <c r="B14" s="3">
+        <v>520</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="16"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34">
+      <c r="A15" s="1"/>
+      <c r="B15" s="3">
+        <v>560</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="16"/>
+      <c r="AD15" s="16"/>
+      <c r="AE15" s="16"/>
+      <c r="AF15" s="16"/>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34">
+      <c r="A16" s="1"/>
+      <c r="B16" s="3">
+        <v>600</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="16"/>
+      <c r="AD16" s="16"/>
+      <c r="AE16" s="16"/>
+      <c r="AF16" s="16"/>
+      <c r="AG16" s="26"/>
+      <c r="AH16" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34">
+      <c r="A17" s="1"/>
+      <c r="B17" s="3">
+        <v>640</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="16"/>
+      <c r="AD17" s="16"/>
+      <c r="AE17" s="16"/>
+      <c r="AF17" s="16"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34">
+      <c r="A18" s="1"/>
+      <c r="B18" s="3">
+        <v>680</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="16"/>
+      <c r="AD18" s="16"/>
+      <c r="AE18" s="16"/>
+      <c r="AF18" s="16"/>
+      <c r="AG18" s="7"/>
+      <c r="AH18" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34">
+      <c r="A19" s="1"/>
+      <c r="B19" s="3">
+        <v>720</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="16"/>
+      <c r="AD19" s="16"/>
+      <c r="AE19" s="16"/>
+      <c r="AF19" s="27"/>
+      <c r="AG19" s="17"/>
+      <c r="AH19" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34">
+      <c r="A20" s="1"/>
+      <c r="B20" s="3">
+        <v>760</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="16"/>
+      <c r="AD20" s="16"/>
+      <c r="AE20" s="16"/>
+      <c r="AF20" s="27"/>
+      <c r="AG20" s="17"/>
+      <c r="AH20" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34">
+      <c r="A21" s="1"/>
+      <c r="B21" s="3">
+        <v>800</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="28"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="16"/>
+      <c r="AD21" s="16"/>
+      <c r="AE21" s="16"/>
+      <c r="AF21" s="27"/>
+      <c r="AG21" s="17"/>
+      <c r="AH21" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34">
+      <c r="A22" s="1"/>
+      <c r="B22" s="3">
+        <v>840</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="28"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="27"/>
+      <c r="AG22" s="17"/>
+      <c r="AH22" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34">
+      <c r="A23" s="1"/>
+      <c r="B23" s="3">
+        <v>880</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="28"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="27"/>
+      <c r="AG23" s="17"/>
+      <c r="AH23" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34">
+      <c r="A24" s="1"/>
+      <c r="B24" s="3">
+        <v>920</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34">
+      <c r="A25" s="1"/>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2</v>
+      </c>
+      <c r="D25" s="3">
+        <v>3</v>
+      </c>
+      <c r="E25" s="3">
+        <v>4</v>
+      </c>
+      <c r="F25" s="3">
+        <v>5</v>
+      </c>
+      <c r="G25" s="3">
+        <v>6</v>
+      </c>
+      <c r="H25" s="3">
+        <v>7</v>
+      </c>
+      <c r="I25" s="3">
+        <v>8</v>
+      </c>
+      <c r="J25" s="3">
+        <v>9</v>
+      </c>
+      <c r="K25" s="3">
+        <v>10</v>
+      </c>
+      <c r="L25" s="3">
+        <v>11</v>
+      </c>
+      <c r="M25" s="3">
+        <v>12</v>
+      </c>
+      <c r="N25" s="3">
+        <v>13</v>
+      </c>
+      <c r="O25" s="3">
+        <v>14</v>
+      </c>
+      <c r="P25" s="3">
+        <v>15</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>16</v>
+      </c>
+      <c r="R25" s="3">
+        <v>17</v>
+      </c>
+      <c r="S25" s="3">
+        <v>18</v>
+      </c>
+      <c r="T25" s="3">
+        <v>19</v>
+      </c>
+      <c r="U25" s="3">
+        <v>20</v>
+      </c>
+      <c r="V25" s="3">
+        <v>21</v>
+      </c>
+      <c r="W25" s="3">
+        <v>22</v>
+      </c>
+      <c r="X25" s="3">
+        <v>23</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>24</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>25</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>26</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>27</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>28</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>29</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>30</v>
+      </c>
+      <c r="AF25" s="3">
+        <v>31</v>
+      </c>
+      <c r="AG25" s="3">
+        <v>32</v>
+      </c>
+      <c r="AH25" s="3"/>
+    </row>
+    <row r="26" spans="1:34">
+      <c r="A26" s="1"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+    </row>
+    <row r="27" spans="1:34">
+      <c r="A27" s="1"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+    </row>
+    <row r="28" spans="1:34">
+      <c r="A28" s="1"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+    </row>
+    <row r="29" spans="1:34">
+      <c r="A29" s="1"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+    </row>
+    <row r="30" spans="1:34">
+      <c r="A30" s="1"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3"/>
+    </row>
+    <row r="31" spans="1:34">
+      <c r="A31" s="1"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
+    </row>
+    <row r="32" spans="1:34">
+      <c r="A32" s="1"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="3"/>
+      <c r="AG32" s="3"/>
+      <c r="AH32" s="3"/>
+    </row>
+    <row r="33" spans="1:34">
+      <c r="A33" s="1"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
+    </row>
+    <row r="34" spans="1:34">
+      <c r="A34" s="1"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3"/>
+      <c r="AH34" s="3"/>
+    </row>
+    <row r="35" spans="1:34">
+      <c r="C35" s="29"/>
+      <c r="D35" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C9B558-8CF5-440F-A8E4-702DDA12C988}">
+  <dimension ref="A1:AG53"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:AG35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:33">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+    </row>
+    <row r="2" spans="1:33">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>40</v>
+      </c>
+      <c r="C2" s="3">
+        <v>80</v>
+      </c>
+      <c r="D2" s="3">
+        <v>120</v>
+      </c>
+      <c r="E2" s="3">
+        <v>160</v>
+      </c>
+      <c r="F2" s="3">
+        <v>200</v>
+      </c>
+      <c r="G2" s="3">
+        <v>240</v>
+      </c>
+      <c r="H2" s="3">
+        <v>280</v>
+      </c>
+      <c r="I2" s="3">
+        <v>320</v>
+      </c>
+      <c r="J2" s="3">
+        <v>360</v>
+      </c>
+      <c r="K2" s="3">
+        <v>400</v>
+      </c>
+      <c r="L2" s="3">
+        <v>440</v>
+      </c>
+      <c r="M2" s="3">
+        <v>480</v>
+      </c>
+      <c r="N2" s="3">
+        <v>520</v>
+      </c>
+      <c r="O2" s="3">
+        <v>560</v>
+      </c>
+      <c r="P2" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>640</v>
+      </c>
+      <c r="R2" s="3">
+        <v>680</v>
+      </c>
+      <c r="S2" s="3">
+        <v>720</v>
+      </c>
+      <c r="T2" s="3">
+        <v>760</v>
+      </c>
+      <c r="U2" s="3">
+        <v>800</v>
+      </c>
+      <c r="V2" s="3">
+        <v>840</v>
+      </c>
+      <c r="W2" s="3">
+        <v>880</v>
+      </c>
+      <c r="X2" s="3">
+        <v>920</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>960</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>1040</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>1080</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>1120</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>1160</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AF2" s="3">
+        <v>1240</v>
+      </c>
+      <c r="AG2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="A3" s="3">
+        <v>40</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="A4" s="3">
+        <v>80</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
+      <c r="A5" s="3">
+        <v>120</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33">
+      <c r="A6" s="3">
+        <v>160</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="A7" s="3">
+        <v>200</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="A8" s="3">
+        <v>240</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="A9" s="3">
+        <v>280</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="A10" s="3">
+        <v>320</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="A11" s="3">
+        <v>360</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="A12" s="3">
+        <v>400</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="A13" s="3">
+        <v>440</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="A14" s="3">
+        <v>480</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="A15" s="3">
+        <v>520</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33">
+      <c r="A16" s="3">
+        <v>560</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33">
+      <c r="A17" s="3">
+        <v>600</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33">
+      <c r="A18" s="3">
+        <v>640</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33">
+      <c r="A19" s="3">
+        <v>680</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33">
+      <c r="A20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="17"/>
+      <c r="AG20" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33">
+      <c r="A21" s="3">
+        <v>760</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="17"/>
+      <c r="AG21" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33">
+      <c r="A22" s="3">
+        <v>800</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="17"/>
+      <c r="AG22" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33">
+      <c r="A23" s="3">
+        <v>840</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="18"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="17"/>
+      <c r="AG23" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33">
+      <c r="A24" s="3">
+        <v>880</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="18"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="9"/>
+      <c r="AF24" s="17"/>
+      <c r="AG24" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33">
+      <c r="A25" s="3">
+        <v>920</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33">
+      <c r="A26" s="3">
+        <v>1</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3">
+        <v>3</v>
+      </c>
+      <c r="D26" s="3">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3">
+        <v>6</v>
+      </c>
+      <c r="G26" s="3">
+        <v>7</v>
+      </c>
+      <c r="H26" s="3">
+        <v>8</v>
+      </c>
+      <c r="I26" s="3">
+        <v>9</v>
+      </c>
+      <c r="J26" s="3">
+        <v>10</v>
+      </c>
+      <c r="K26" s="3">
+        <v>11</v>
+      </c>
+      <c r="L26" s="3">
+        <v>12</v>
+      </c>
+      <c r="M26" s="3">
+        <v>13</v>
+      </c>
+      <c r="N26" s="3">
+        <v>14</v>
+      </c>
+      <c r="O26" s="3">
+        <v>15</v>
+      </c>
+      <c r="P26" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>17</v>
+      </c>
+      <c r="R26" s="3">
+        <v>18</v>
+      </c>
+      <c r="S26" s="3">
+        <v>19</v>
+      </c>
+      <c r="T26" s="3">
+        <v>20</v>
+      </c>
+      <c r="U26" s="3">
+        <v>21</v>
+      </c>
+      <c r="V26" s="3">
+        <v>22</v>
+      </c>
+      <c r="W26" s="3">
+        <v>23</v>
+      </c>
+      <c r="X26" s="3">
+        <v>24</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>25</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>26</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>27</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>28</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>29</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>30</v>
+      </c>
+      <c r="AE26" s="3">
+        <v>31</v>
+      </c>
+      <c r="AF26" s="3">
+        <v>32</v>
+      </c>
+      <c r="AG26" s="3"/>
+    </row>
+    <row r="27" spans="1:33">
+      <c r="A27" s="3"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+    </row>
+    <row r="28" spans="1:33">
+      <c r="A28" s="3"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+    </row>
+    <row r="29" spans="1:33">
+      <c r="A29" s="3"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+    </row>
+    <row r="30" spans="1:33">
+      <c r="A30" s="3"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
+    </row>
+    <row r="31" spans="1:33">
+      <c r="A31" s="3"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+    </row>
+    <row r="32" spans="1:33">
+      <c r="A32" s="3"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="3"/>
+      <c r="AG32" s="3"/>
+    </row>
+    <row r="33" spans="1:33">
+      <c r="A33" s="3"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="32"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+    </row>
+    <row r="34" spans="1:33">
+      <c r="A34" s="3"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3"/>
+    </row>
+    <row r="35" spans="1:33">
+      <c r="A35" s="3"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="3"/>
+      <c r="AG35" s="3"/>
+    </row>
+    <row r="48" spans="1:33">
+      <c r="Q48" s="33"/>
+    </row>
+    <row r="49" spans="12:21">
+      <c r="L49" s="33"/>
+      <c r="M49" s="33"/>
+      <c r="N49" s="33"/>
+      <c r="R49" s="33"/>
+      <c r="S49" s="33"/>
+      <c r="T49" s="34"/>
+    </row>
+    <row r="50" spans="12:21">
+      <c r="L50" s="33"/>
+      <c r="M50" s="33"/>
+      <c r="N50" s="33"/>
+      <c r="R50" s="33"/>
+      <c r="S50" s="33"/>
+      <c r="T50" s="33"/>
+    </row>
+    <row r="51" spans="12:21">
+      <c r="L51" s="33"/>
+      <c r="M51" s="33"/>
+      <c r="N51" s="33"/>
+      <c r="S51" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="T51" s="33"/>
+      <c r="U51" s="33"/>
+    </row>
+    <row r="52" spans="12:21">
+      <c r="L52" s="33"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="33"/>
+      <c r="S52" s="34"/>
+      <c r="T52" s="33"/>
+      <c r="U52" s="33"/>
+    </row>
+    <row r="53" spans="12:21">
+      <c r="L53" s="33"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="33"/>
+      <c r="S53" s="34"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="34"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642CF41D-C417-417A-A917-38334BEB0BCB}">
+  <dimension ref="A1:AG34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="30" max="30" width="8.25" customWidth="1"/>
+    <col min="32" max="32" width="5.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33">
+      <c r="A1" s="3">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3">
+        <v>40</v>
+      </c>
+      <c r="C1" s="3">
+        <v>80</v>
+      </c>
+      <c r="D1" s="3">
+        <v>120</v>
+      </c>
+      <c r="E1" s="3">
+        <v>160</v>
+      </c>
+      <c r="F1" s="3">
+        <v>200</v>
+      </c>
+      <c r="G1" s="3">
+        <v>240</v>
+      </c>
+      <c r="H1" s="3">
+        <v>280</v>
+      </c>
+      <c r="I1" s="3">
+        <v>320</v>
+      </c>
+      <c r="J1" s="3">
+        <v>360</v>
+      </c>
+      <c r="K1" s="3">
+        <v>400</v>
+      </c>
+      <c r="L1" s="3">
+        <v>440</v>
+      </c>
+      <c r="M1" s="3">
+        <v>480</v>
+      </c>
+      <c r="N1" s="3">
+        <v>520</v>
+      </c>
+      <c r="O1" s="3">
+        <v>560</v>
+      </c>
+      <c r="P1" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>640</v>
+      </c>
+      <c r="R1" s="3">
+        <v>680</v>
+      </c>
+      <c r="S1" s="3">
+        <v>720</v>
+      </c>
+      <c r="T1" s="3">
+        <v>760</v>
+      </c>
+      <c r="U1" s="3">
+        <v>800</v>
+      </c>
+      <c r="V1" s="3">
+        <v>840</v>
+      </c>
+      <c r="W1" s="3">
+        <v>880</v>
+      </c>
+      <c r="X1" s="3">
+        <v>920</v>
+      </c>
+      <c r="Y1" s="3">
+        <v>960</v>
+      </c>
+      <c r="Z1" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AA1" s="3">
+        <v>1040</v>
+      </c>
+      <c r="AB1" s="3">
+        <v>1080</v>
+      </c>
+      <c r="AC1" s="3">
+        <v>1120</v>
+      </c>
+      <c r="AD1" s="3">
+        <v>1160</v>
+      </c>
+      <c r="AE1" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AF1" s="3">
+        <v>1240</v>
+      </c>
+      <c r="AG1" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
+      <c r="A2" s="3">
+        <v>40</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="A3" s="3">
+        <v>80</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="A4" s="3">
+        <v>120</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
+      <c r="A5" s="3">
+        <v>160</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33">
+      <c r="A6" s="3">
+        <v>200</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="A7" s="3">
+        <v>240</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="A8" s="3">
+        <v>280</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="A9" s="3">
+        <v>320</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="A10" s="3">
+        <v>360</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="31"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="A11" s="3">
+        <v>400</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="31"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="A12" s="3">
+        <v>440</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="31"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="A13" s="3">
+        <v>480</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="A14" s="3">
+        <v>520</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="37"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="A15" s="3">
+        <v>560</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33">
+      <c r="A16" s="3">
+        <v>600</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33">
+      <c r="A17" s="3">
+        <v>640</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33">
+      <c r="A18" s="3">
+        <v>680</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="7"/>
+      <c r="AG18" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33">
+      <c r="A19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="18"/>
+      <c r="AF19" s="17"/>
+      <c r="AG19" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33">
+      <c r="A20" s="3">
+        <v>760</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="18"/>
+      <c r="AF20" s="17"/>
+      <c r="AG20" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33">
+      <c r="A21" s="3">
+        <v>800</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="27"/>
+      <c r="AF21" s="17"/>
+      <c r="AG21" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33">
+      <c r="A22" s="3">
+        <v>840</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="27"/>
+      <c r="AF22" s="17"/>
+      <c r="AG22" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33">
+      <c r="A23" s="3">
+        <v>880</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="18"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="27"/>
+      <c r="AF23" s="17"/>
+      <c r="AG23" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33">
+      <c r="A24" s="3">
+        <v>920</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33">
+      <c r="A25" s="3">
+        <v>1</v>
+      </c>
+      <c r="B25" s="3">
+        <v>2</v>
+      </c>
+      <c r="C25" s="3">
+        <v>3</v>
+      </c>
+      <c r="D25" s="3">
+        <v>4</v>
+      </c>
+      <c r="E25" s="3">
+        <v>5</v>
+      </c>
+      <c r="F25" s="3">
+        <v>6</v>
+      </c>
+      <c r="G25" s="3">
+        <v>7</v>
+      </c>
+      <c r="H25" s="3">
+        <v>8</v>
+      </c>
+      <c r="I25" s="3">
+        <v>9</v>
+      </c>
+      <c r="J25" s="3">
+        <v>10</v>
+      </c>
+      <c r="K25" s="3">
+        <v>11</v>
+      </c>
+      <c r="L25" s="3">
+        <v>12</v>
+      </c>
+      <c r="M25" s="3">
+        <v>13</v>
+      </c>
+      <c r="N25" s="3">
+        <v>14</v>
+      </c>
+      <c r="O25" s="3">
+        <v>15</v>
+      </c>
+      <c r="P25" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>17</v>
+      </c>
+      <c r="R25" s="3">
+        <v>18</v>
+      </c>
+      <c r="S25" s="3">
+        <v>19</v>
+      </c>
+      <c r="T25" s="3">
+        <v>20</v>
+      </c>
+      <c r="U25" s="3">
+        <v>21</v>
+      </c>
+      <c r="V25" s="3">
+        <v>22</v>
+      </c>
+      <c r="W25" s="3">
+        <v>23</v>
+      </c>
+      <c r="X25" s="3">
+        <v>24</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>25</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>26</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>27</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>28</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>29</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>30</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>31</v>
+      </c>
+      <c r="AF25" s="3">
+        <v>32</v>
+      </c>
+      <c r="AG25" s="3"/>
+    </row>
+    <row r="26" spans="1:33">
+      <c r="A26" s="3"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+    </row>
+    <row r="27" spans="1:33">
+      <c r="A27" s="3"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+    </row>
+    <row r="28" spans="1:33">
+      <c r="A28" s="3"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+    </row>
+    <row r="29" spans="1:33">
+      <c r="A29" s="3"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+    </row>
+    <row r="30" spans="1:33">
+      <c r="A30" s="3"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
+    </row>
+    <row r="31" spans="1:33">
+      <c r="A31" s="3"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+    </row>
+    <row r="32" spans="1:33">
+      <c r="A32" s="3"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="32"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="3"/>
+      <c r="AG32" s="3"/>
+    </row>
+    <row r="33" spans="1:33">
+      <c r="A33" s="3"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+    </row>
+    <row r="34" spans="1:33">
+      <c r="A34" s="3"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
